--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_16.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64153.93912657909</v>
+        <v>64153.93912657921</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24896801.49762651</v>
+        <v>24896801.49762652</v>
       </c>
     </row>
     <row r="8">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.94786280235959</v>
+        <v>66.89487755631821</v>
       </c>
       <c r="C11" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>66.89487755631831</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="Y11" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235947</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>66.89487755631822</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="E12" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="G12" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.46957991040867</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>66.89487755631821</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.89487755631831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>15.83348434264538</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>75.94786280235965</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>75.94786280235965</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>75.94786280235965</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367293</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>66.89487755631819</v>
       </c>
     </row>
     <row r="15">
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>75.94786280235965</v>
+        <v>66.89487755631819</v>
       </c>
       <c r="V15" t="n">
-        <v>75.94786280235965</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="X15" t="n">
-        <v>75.94786280235965</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>66.89487755631833</v>
+        <v>75.94786280235945</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.94786280235965</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>75.94786280235965</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66.89487755631833</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.4856502303878636</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.94786280235965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>193.3854158231839</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F17" t="n">
         <v>219.5565574740962</v>
       </c>
       <c r="G17" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>219.5565574740962</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>59.2291190807248</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>106.783978336137</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>76.24352442029686</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U18" t="n">
         <v>195.3283754674364</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>19.72327283162434</v>
+        <v>7.56270649307988</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>219.5565574740962</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="W19" t="n">
         <v>219.5565574740962</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>219.5565574740962</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>219.5565574740962</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>193.3854158231839</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>193.3854158231839</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3.912871728671049</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>138.4080336159618</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2228,7 +2228,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>50.2270393398327</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H22" t="n">
-        <v>1.351152857091222</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>56.38567239618433</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>219.5565574740962</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>219.5565574740962</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>154.2880991089391</v>
+        <v>200.8984742642116</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2456,13 +2456,13 @@
         <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
-        <v>161.4681924097553</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>124.4565027153548</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>121.6355632785696</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.8854088356246</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
         <v>279.9159111551209</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>108.4043155504821</v>
       </c>
       <c r="V26" t="n">
-        <v>173.6572908141299</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>88.61974819287067</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>28.33627645607657</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2730,7 +2730,7 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.1714349422166</v>
       </c>
       <c r="I28" t="n">
         <v>85.27009235220248</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
         <v>279.9159111551209</v>
       </c>
       <c r="V28" t="n">
-        <v>234.097464479164</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.0394841019024</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>195.4022294214745</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7337711575492</v>
+        <v>28.33627645607701</v>
       </c>
       <c r="H30" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
-        <v>102.8600384409062</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
         <v>195.2992474636072</v>
@@ -2955,22 +2955,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>150.270058862494</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>148.0003846443508</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3031,13 +3031,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>7.977866898760376</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>208.203253123719</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.921283279978617</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
         <v>132.6551205385437</v>
@@ -3122,7 +3122,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7337711575492</v>
+        <v>54.62755183040828</v>
       </c>
       <c r="H33" t="n">
         <v>58.58122432777904</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>152.9662577680471</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>109.3014571567808</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>22.08790568766597</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>123.200031268928</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>197.502113065715</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7337711575492</v>
+        <v>28.33627645607612</v>
       </c>
       <c r="H36" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
-        <v>145.1930281364667</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
-        <v>139.2678442953623</v>
+        <v>96.25935344570044</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.5989797316383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>129.5102284795879</v>
+        <v>133.9967944149147</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>102.8600384409058</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U39" t="n">
-        <v>195.2992474636072</v>
+        <v>145.193028136466</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -3669,19 +3669,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>152.6804958527573</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>62.12889509450303</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>121.4861131813231</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>197.5021130657146</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>28.33627645607612</v>
+        <v>28.33627645607657</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>20.10839004967475</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>158.4843853130993</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>50.27237541890666</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3991,10 +3991,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>76.23372692877139</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>55.85255598777737</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>38.49512962614108</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.79084195586513</v>
+        <v>82.79084195586499</v>
       </c>
       <c r="C11" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="D11" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="E11" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="F11" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="G11" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="H11" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="I11" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="J11" t="n">
-        <v>8.518653200747906</v>
+        <v>8.518653200747792</v>
       </c>
       <c r="K11" t="n">
-        <v>32.72891329418877</v>
+        <v>32.7289132941886</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020706</v>
+        <v>77.70909531020681</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5843367211127</v>
+        <v>140.5843367211123</v>
       </c>
       <c r="N11" t="n">
-        <v>206.345557665515</v>
+        <v>206.3455576655147</v>
       </c>
       <c r="O11" t="n">
-        <v>263.0412330294161</v>
+        <v>263.0412330294155</v>
       </c>
       <c r="P11" t="n">
-        <v>297.4567749038208</v>
+        <v>297.4567749038204</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="R11" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="S11" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="T11" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="U11" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="V11" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="W11" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="X11" t="n">
-        <v>236.2208678192179</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="Y11" t="n">
-        <v>159.5058548875415</v>
+        <v>150.3614253460854</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>227.076438277762</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="C12" t="n">
-        <v>227.076438277762</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="D12" t="n">
-        <v>227.076438277762</v>
+        <v>159.5058548875412</v>
       </c>
       <c r="E12" t="n">
-        <v>150.3614253460856</v>
+        <v>82.79084195586499</v>
       </c>
       <c r="F12" t="n">
-        <v>150.3614253460856</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="G12" t="n">
-        <v>73.64641241440927</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="H12" t="n">
-        <v>7.560253176116717</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="I12" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="J12" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="K12" t="n">
-        <v>27.18934645194808</v>
+        <v>27.18934645194804</v>
       </c>
       <c r="L12" t="n">
-        <v>74.33970537129234</v>
+        <v>74.33970537129221</v>
       </c>
       <c r="M12" t="n">
-        <v>137.20148190118</v>
+        <v>137.2014819011798</v>
       </c>
       <c r="N12" t="n">
-        <v>207.5625237956375</v>
+        <v>207.5625237956372</v>
       </c>
       <c r="O12" t="n">
-        <v>262.9301139282922</v>
+        <v>262.9301139282919</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5375944741911</v>
+        <v>299.5375944741906</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="R12" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="S12" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="T12" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="U12" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="V12" t="n">
-        <v>227.076438277762</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="W12" t="n">
-        <v>227.076438277762</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="X12" t="n">
-        <v>227.076438277762</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="Y12" t="n">
-        <v>227.076438277762</v>
+        <v>303.7914512094379</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.5058548875415</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="C13" t="n">
-        <v>82.79084195586513</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="D13" t="n">
-        <v>82.79084195586513</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="E13" t="n">
-        <v>6.075829024188768</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="F13" t="n">
-        <v>6.075829024188768</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="G13" t="n">
-        <v>6.075829024188768</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="H13" t="n">
-        <v>6.075829024188768</v>
+        <v>73.64641241440918</v>
       </c>
       <c r="I13" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="J13" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188757</v>
       </c>
       <c r="K13" t="n">
-        <v>6.075829024188768</v>
+        <v>81.26421319852463</v>
       </c>
       <c r="L13" t="n">
-        <v>10.95106657773222</v>
+        <v>86.13945075206804</v>
       </c>
       <c r="M13" t="n">
-        <v>86.13945075206821</v>
+        <v>92.59930981427721</v>
       </c>
       <c r="N13" t="n">
-        <v>161.3278349264042</v>
+        <v>153.4146828607662</v>
       </c>
       <c r="O13" t="n">
-        <v>228.6030670351024</v>
+        <v>228.603067035102</v>
       </c>
       <c r="P13" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="Q13" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="R13" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="S13" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="T13" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="U13" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="V13" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="W13" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="X13" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="Y13" t="n">
-        <v>236.2208678192179</v>
+        <v>303.7914512094379</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.7914512094386</v>
+        <v>82.79084195586498</v>
       </c>
       <c r="C14" t="n">
-        <v>303.7914512094386</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="D14" t="n">
-        <v>303.7914512094386</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="E14" t="n">
-        <v>287.798032681514</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="F14" t="n">
-        <v>211.0830197498375</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="G14" t="n">
-        <v>134.3680068181611</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="H14" t="n">
-        <v>57.65299388648466</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="I14" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="J14" t="n">
-        <v>8.518653200747925</v>
+        <v>8.518653200747849</v>
       </c>
       <c r="K14" t="n">
-        <v>32.72891329418878</v>
+        <v>32.72891329418871</v>
       </c>
       <c r="L14" t="n">
-        <v>77.70909531020706</v>
+        <v>77.70909531020698</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5843367211127</v>
+        <v>140.5843367211125</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655152</v>
+        <v>206.3455576655149</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0412330294163</v>
+        <v>263.0412330294158</v>
       </c>
       <c r="P14" t="n">
-        <v>297.456774903821</v>
+        <v>297.4567749038204</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="R14" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="S14" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="T14" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="U14" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="V14" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="W14" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="X14" t="n">
-        <v>303.7914512094386</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="Y14" t="n">
-        <v>303.7914512094386</v>
+        <v>159.5058548875412</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="C15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="D15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="E15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="F15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="G15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="H15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="I15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="J15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="K15" t="n">
-        <v>27.18934645194825</v>
+        <v>27.189346451948</v>
       </c>
       <c r="L15" t="n">
-        <v>74.33970537129248</v>
+        <v>74.33970537129215</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2014819011801</v>
+        <v>137.2014819011796</v>
       </c>
       <c r="N15" t="n">
-        <v>207.5625237956376</v>
+        <v>207.562523795637</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282924</v>
+        <v>262.9301139282917</v>
       </c>
       <c r="P15" t="n">
-        <v>299.5375944741913</v>
+        <v>299.5375944741906</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="R15" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="S15" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="T15" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="U15" t="n">
-        <v>227.0764382777622</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="V15" t="n">
-        <v>150.3614253460858</v>
+        <v>159.5058548875412</v>
       </c>
       <c r="W15" t="n">
-        <v>150.3614253460858</v>
+        <v>82.79084195586498</v>
       </c>
       <c r="X15" t="n">
-        <v>73.64641241440933</v>
+        <v>82.79084195586498</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.3614253460858</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="C16" t="n">
-        <v>73.64641241440933</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="D16" t="n">
-        <v>73.64641241440933</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="E16" t="n">
-        <v>73.64641241440933</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="F16" t="n">
-        <v>73.64641241440933</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="G16" t="n">
-        <v>6.075829024188772</v>
+        <v>159.5058548875412</v>
       </c>
       <c r="H16" t="n">
-        <v>6.075829024188772</v>
+        <v>82.79084195586498</v>
       </c>
       <c r="I16" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="J16" t="n">
-        <v>6.075829024188772</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="K16" t="n">
-        <v>81.26421319852483</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="L16" t="n">
-        <v>86.13945075206829</v>
+        <v>10.95106657773216</v>
       </c>
       <c r="M16" t="n">
-        <v>161.3278349264043</v>
+        <v>17.41092563994131</v>
       </c>
       <c r="N16" t="n">
-        <v>236.5162191007404</v>
+        <v>78.22629868643025</v>
       </c>
       <c r="O16" t="n">
-        <v>237.0536353631426</v>
+        <v>153.4146828607661</v>
       </c>
       <c r="P16" t="n">
-        <v>303.7914512094386</v>
+        <v>228.603067035102</v>
       </c>
       <c r="Q16" t="n">
-        <v>303.7914512094386</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="R16" t="n">
-        <v>303.7914512094386</v>
+        <v>236.711423607488</v>
       </c>
       <c r="S16" t="n">
-        <v>303.7914512094386</v>
+        <v>236.711423607488</v>
       </c>
       <c r="T16" t="n">
-        <v>303.7914512094386</v>
+        <v>236.711423607488</v>
       </c>
       <c r="U16" t="n">
-        <v>303.7914512094386</v>
+        <v>236.711423607488</v>
       </c>
       <c r="V16" t="n">
-        <v>303.7914512094386</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="W16" t="n">
-        <v>303.7914512094386</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="X16" t="n">
-        <v>303.7914512094386</v>
+        <v>236.2208678192174</v>
       </c>
       <c r="Y16" t="n">
-        <v>227.0764382777622</v>
+        <v>236.2208678192174</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>878.2262298963849</v>
+        <v>715.1114365838778</v>
       </c>
       <c r="C17" t="n">
-        <v>878.2262298963849</v>
+        <v>715.1114365838778</v>
       </c>
       <c r="D17" t="n">
-        <v>878.2262298963849</v>
+        <v>715.1114365838778</v>
       </c>
       <c r="E17" t="n">
-        <v>682.887426034583</v>
+        <v>493.3371361049926</v>
       </c>
       <c r="F17" t="n">
-        <v>461.1131255556979</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="G17" t="n">
-        <v>239.3388250768128</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="H17" t="n">
-        <v>17.5645245979277</v>
+        <v>49.78853514722243</v>
       </c>
       <c r="I17" t="n">
         <v>17.5645245979277</v>
@@ -5542,25 +5542,25 @@
         <v>878.2262298963849</v>
       </c>
       <c r="S17" t="n">
-        <v>878.2262298963849</v>
+        <v>774.9388295947109</v>
       </c>
       <c r="T17" t="n">
-        <v>878.2262298963849</v>
+        <v>715.1114365838778</v>
       </c>
       <c r="U17" t="n">
-        <v>878.2262298963849</v>
+        <v>715.1114365838778</v>
       </c>
       <c r="V17" t="n">
-        <v>878.2262298963849</v>
+        <v>715.1114365838778</v>
       </c>
       <c r="W17" t="n">
-        <v>878.2262298963849</v>
+        <v>715.1114365838778</v>
       </c>
       <c r="X17" t="n">
-        <v>878.2262298963849</v>
+        <v>715.1114365838778</v>
       </c>
       <c r="Y17" t="n">
-        <v>878.2262298963849</v>
+        <v>715.1114365838778</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>94.5781856285306</v>
+        <v>524.6108673340062</v>
       </c>
       <c r="C18" t="n">
-        <v>94.5781856285306</v>
+        <v>524.6108673340062</v>
       </c>
       <c r="D18" t="n">
-        <v>94.5781856285306</v>
+        <v>416.7482629540699</v>
       </c>
       <c r="E18" t="n">
-        <v>94.5781856285306</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="F18" t="n">
-        <v>94.5781856285306</v>
+        <v>187.2955671289025</v>
       </c>
       <c r="G18" t="n">
-        <v>17.5645245979277</v>
+        <v>81.05666125440383</v>
       </c>
       <c r="H18" t="n">
         <v>17.5645245979277</v>
@@ -5594,7 +5594,7 @@
         <v>22.57805692180546</v>
       </c>
       <c r="J18" t="n">
-        <v>199.1734695941001</v>
+        <v>45.43444072640045</v>
       </c>
       <c r="K18" t="n">
         <v>262.7954326257557</v>
@@ -5624,22 +5624,22 @@
         <v>878.2262298963849</v>
       </c>
       <c r="T18" t="n">
-        <v>878.2262298963849</v>
+        <v>721.9122566950531</v>
       </c>
       <c r="U18" t="n">
-        <v>680.924840535338</v>
+        <v>524.6108673340062</v>
       </c>
       <c r="V18" t="n">
-        <v>467.2133135283718</v>
+        <v>524.6108673340062</v>
       </c>
       <c r="W18" t="n">
-        <v>253.9801452647006</v>
+        <v>524.6108673340062</v>
       </c>
       <c r="X18" t="n">
-        <v>253.9801452647006</v>
+        <v>524.6108673340062</v>
       </c>
       <c r="Y18" t="n">
-        <v>94.5781856285306</v>
+        <v>524.6108673340062</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.48702240764925</v>
+        <v>25.20362206568515</v>
       </c>
       <c r="C19" t="n">
         <v>17.5645245979277</v>
@@ -5679,19 +5679,19 @@
         <v>234.925516497283</v>
       </c>
       <c r="L19" t="n">
-        <v>427.6025555970187</v>
+        <v>359.1880527446544</v>
       </c>
       <c r="M19" t="n">
-        <v>468.6576018968085</v>
+        <v>400.2430990444442</v>
       </c>
       <c r="N19" t="n">
-        <v>511.9187489500387</v>
+        <v>443.5042460976744</v>
       </c>
       <c r="O19" t="n">
-        <v>543.6506192616148</v>
+        <v>660.8652379970297</v>
       </c>
       <c r="P19" t="n">
-        <v>761.01161116097</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="Q19" t="n">
         <v>878.2262298963849</v>
@@ -5700,25 +5700,25 @@
         <v>878.2262298963849</v>
       </c>
       <c r="S19" t="n">
-        <v>702.8099238443045</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="T19" t="n">
-        <v>481.0356233654194</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="U19" t="n">
-        <v>481.0356233654194</v>
+        <v>656.4519294174997</v>
       </c>
       <c r="V19" t="n">
-        <v>481.0356233654194</v>
+        <v>434.6776289386146</v>
       </c>
       <c r="W19" t="n">
-        <v>259.2613228865343</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="X19" t="n">
-        <v>259.2613228865343</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.48702240764925</v>
+        <v>212.9033284597296</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>461.1131255556979</v>
+        <v>682.887426034583</v>
       </c>
       <c r="C20" t="n">
-        <v>461.1131255556979</v>
+        <v>682.887426034583</v>
       </c>
       <c r="D20" t="n">
-        <v>461.1131255556979</v>
+        <v>682.887426034583</v>
       </c>
       <c r="E20" t="n">
         <v>461.1131255556979</v>
       </c>
       <c r="F20" t="n">
+        <v>461.1131255556979</v>
+      </c>
+      <c r="G20" t="n">
         <v>239.3388250768128</v>
-      </c>
-      <c r="G20" t="n">
-        <v>17.5645245979277</v>
       </c>
       <c r="H20" t="n">
         <v>17.5645245979277</v>
@@ -5752,25 +5752,25 @@
         <v>17.5645245979277</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422707</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5608200474252</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1830965723309</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M20" t="n">
         <v>420.4501281543857</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809667</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P20" t="n">
-        <v>818.7605380598412</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q20" t="n">
         <v>878.2262298963848</v>
@@ -5785,13 +5785,13 @@
         <v>878.2262298963849</v>
       </c>
       <c r="U20" t="n">
-        <v>878.2262298963849</v>
+        <v>682.887426034583</v>
       </c>
       <c r="V20" t="n">
-        <v>878.2262298963849</v>
+        <v>682.887426034583</v>
       </c>
       <c r="W20" t="n">
-        <v>878.2262298963849</v>
+        <v>682.887426034583</v>
       </c>
       <c r="X20" t="n">
         <v>682.887426034583</v>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.5645245979277</v>
+        <v>151.559595848982</v>
       </c>
       <c r="C21" t="n">
         <v>17.5645245979277</v>
@@ -5828,55 +5828,55 @@
         <v>17.5645245979277</v>
       </c>
       <c r="I21" t="n">
-        <v>22.57805692180547</v>
+        <v>22.57805692180546</v>
       </c>
       <c r="J21" t="n">
-        <v>41.28272619165517</v>
+        <v>123.9013828858379</v>
       </c>
       <c r="K21" t="n">
-        <v>104.9046892233109</v>
+        <v>187.5233459174936</v>
       </c>
       <c r="L21" t="n">
-        <v>209.2128991251059</v>
+        <v>291.8315558192886</v>
       </c>
       <c r="M21" t="n">
-        <v>338.7751917898522</v>
+        <v>421.3938484840348</v>
       </c>
       <c r="N21" t="n">
-        <v>477.602114007678</v>
+        <v>560.2207707018606</v>
       </c>
       <c r="O21" t="n">
-        <v>595.6026087407772</v>
+        <v>678.2212654349598</v>
       </c>
       <c r="P21" t="n">
-        <v>682.478517042942</v>
+        <v>765.0971737371246</v>
       </c>
       <c r="Q21" t="n">
-        <v>878.2262298963849</v>
+        <v>802.9541431881228</v>
       </c>
       <c r="R21" t="n">
         <v>878.2262298963849</v>
       </c>
       <c r="S21" t="n">
-        <v>784.1895570513686</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="T21" t="n">
-        <v>784.1895570513686</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="U21" t="n">
-        <v>780.2371613658423</v>
+        <v>680.924840535338</v>
       </c>
       <c r="V21" t="n">
-        <v>566.5256343588761</v>
+        <v>541.1187459737605</v>
       </c>
       <c r="W21" t="n">
-        <v>353.2924660952049</v>
+        <v>327.8855777100892</v>
       </c>
       <c r="X21" t="n">
-        <v>176.9664842340977</v>
+        <v>151.559595848982</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.5645245979277</v>
+        <v>151.559595848982</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>190.0226979019599</v>
+        <v>656.4519294174997</v>
       </c>
       <c r="C22" t="n">
-        <v>18.92932546367641</v>
+        <v>605.7175462459516</v>
       </c>
       <c r="D22" t="n">
-        <v>18.92932546367641</v>
+        <v>446.2229015688616</v>
       </c>
       <c r="E22" t="n">
-        <v>18.92932546367641</v>
+        <v>446.2229015688616</v>
       </c>
       <c r="F22" t="n">
-        <v>18.92932546367641</v>
+        <v>281.5917756794529</v>
       </c>
       <c r="G22" t="n">
-        <v>18.92932546367641</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="H22" t="n">
-        <v>17.5645245979277</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="I22" t="n">
         <v>17.5645245979277</v>
@@ -5913,19 +5913,19 @@
         <v>75.28691789969612</v>
       </c>
       <c r="K22" t="n">
-        <v>292.6479097990514</v>
+        <v>95.27272118859361</v>
       </c>
       <c r="L22" t="n">
-        <v>510.0089016984066</v>
+        <v>132.9595165965356</v>
       </c>
       <c r="M22" t="n">
-        <v>551.0639479981965</v>
+        <v>350.3205084958909</v>
       </c>
       <c r="N22" t="n">
-        <v>768.4249398975517</v>
+        <v>567.6815003952461</v>
       </c>
       <c r="O22" t="n">
-        <v>800.1568102091277</v>
+        <v>785.0424922946013</v>
       </c>
       <c r="P22" t="n">
         <v>878.2262298963849</v>
@@ -5934,28 +5934,28 @@
         <v>878.2262298963849</v>
       </c>
       <c r="R22" t="n">
-        <v>821.2710052537744</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="S22" t="n">
-        <v>821.2710052537744</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="T22" t="n">
-        <v>821.2710052537744</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="U22" t="n">
-        <v>599.4967047748894</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="V22" t="n">
-        <v>599.4967047748894</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="W22" t="n">
-        <v>377.7224042960043</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="X22" t="n">
-        <v>377.7224042960043</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="Y22" t="n">
-        <v>377.7224042960043</v>
+        <v>656.4519294174997</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>444.2324402545842</v>
+        <v>873.114632264678</v>
       </c>
       <c r="C23" t="n">
-        <v>444.2324402545842</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D23" t="n">
-        <v>444.2324402545842</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E23" t="n">
-        <v>444.2324402545842</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F23" t="n">
-        <v>444.2324402545842</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G23" t="n">
         <v>37.74400473526219</v>
@@ -5995,10 +5995,10 @@
         <v>342.4771847987903</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131294</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655642</v>
+        <v>887.4914597655638</v>
       </c>
       <c r="N23" t="n">
         <v>1187.216805582613</v>
@@ -6016,25 +6016,25 @@
         <v>1887.200236763109</v>
       </c>
       <c r="S23" t="n">
-        <v>1802.959711252747</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="T23" t="n">
-        <v>1590.558164392901</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="U23" t="n">
-        <v>1333.676860539439</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="V23" t="n">
-        <v>983.8393058759198</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="W23" t="n">
-        <v>600.0790050110884</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="X23" t="n">
-        <v>444.2324402545842</v>
+        <v>1684.272484981077</v>
       </c>
       <c r="Y23" t="n">
-        <v>444.2324402545842</v>
+        <v>1283.335811929167</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>37.74400473526219</v>
       </c>
       <c r="I24" t="n">
-        <v>57.84875584306884</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J24" t="n">
-        <v>361.6332868996043</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K24" t="n">
-        <v>496.0340272520128</v>
+        <v>693.0854602047127</v>
       </c>
       <c r="L24" t="n">
-        <v>695.5130379051964</v>
+        <v>892.5644708578961</v>
       </c>
       <c r="M24" t="n">
         <v>1133.186599082843</v>
@@ -6104,10 +6104,10 @@
         <v>1535.416898145277</v>
       </c>
       <c r="V24" t="n">
-        <v>1372.317713892999</v>
+        <v>1321.705371138311</v>
       </c>
       <c r="W24" t="n">
-        <v>1159.084545629327</v>
+        <v>1108.472202874639</v>
       </c>
       <c r="X24" t="n">
         <v>982.7585637682201</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>548.325021812533</v>
+        <v>208.8373771735457</v>
       </c>
       <c r="C25" t="n">
-        <v>548.325021812533</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D25" t="n">
-        <v>548.325021812533</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E25" t="n">
-        <v>387.4142066808525</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F25" t="n">
-        <v>387.4142066808525</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G25" t="n">
-        <v>264.550001348964</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H25" t="n">
-        <v>123.8754111516283</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I25" t="n">
         <v>37.74400473526219</v>
       </c>
       <c r="J25" t="n">
-        <v>111.8166004547676</v>
+        <v>56.44525221744568</v>
       </c>
       <c r="K25" t="n">
-        <v>174.4958824159274</v>
+        <v>325.4047277643195</v>
       </c>
       <c r="L25" t="n">
-        <v>266.815631674118</v>
+        <v>417.7244770225101</v>
       </c>
       <c r="M25" t="n">
-        <v>710.4398172179131</v>
+        <v>861.3486625663052</v>
       </c>
       <c r="N25" t="n">
-        <v>1141.968389857241</v>
+        <v>1292.877235205633</v>
       </c>
       <c r="O25" t="n">
-        <v>1540.71541132436</v>
+        <v>1691.624256672752</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.488871500339</v>
+        <v>1755.500233375612</v>
       </c>
       <c r="Q25" t="n">
         <v>1887.200236763109</v>
       </c>
       <c r="R25" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="S25" t="n">
-        <v>1847.103336716821</v>
+        <v>1742.871540969549</v>
       </c>
       <c r="T25" t="n">
-        <v>1847.103336716821</v>
+        <v>1507.615692077834</v>
       </c>
       <c r="U25" t="n">
-        <v>1564.359992115689</v>
+        <v>1224.872347476701</v>
       </c>
       <c r="V25" t="n">
-        <v>1290.474247055211</v>
+        <v>950.9866024162233</v>
       </c>
       <c r="W25" t="n">
-        <v>1011.404582564085</v>
+        <v>671.9169379250976</v>
       </c>
       <c r="X25" t="n">
-        <v>773.0607204237683</v>
+        <v>433.573075784781</v>
       </c>
       <c r="Y25" t="n">
-        <v>548.325021812533</v>
+        <v>208.8373771735457</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>442.2079346422017</v>
+        <v>1283.239222951408</v>
       </c>
       <c r="C26" t="n">
-        <v>442.2079346422017</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D26" t="n">
-        <v>37.74400473526219</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E26" t="n">
-        <v>37.74400473526219</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I26" t="n">
         <v>37.74400473526221</v>
@@ -6229,19 +6229,19 @@
         <v>151.474921851223</v>
       </c>
       <c r="K26" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L26" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P26" t="n">
         <v>1687.808675484973</v>
@@ -6259,19 +6259,19 @@
         <v>1802.959711252748</v>
       </c>
       <c r="U26" t="n">
-        <v>1802.959711252748</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.54830638999</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="W26" t="n">
-        <v>1243.788005525159</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="X26" t="n">
-        <v>843.1446076941115</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="Y26" t="n">
-        <v>442.2079346422017</v>
+        <v>1693.460402615897</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>546.7114310628759</v>
+        <v>546.7114310628764</v>
       </c>
       <c r="C27" t="n">
-        <v>412.7163598118216</v>
+        <v>412.7163598118221</v>
       </c>
       <c r="D27" t="n">
-        <v>295.819202031214</v>
+        <v>323.2014626473062</v>
       </c>
       <c r="E27" t="n">
-        <v>175.326386023542</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="F27" t="n">
-        <v>66.36650620604661</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G27" t="n">
-        <v>37.74400473526219</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H27" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J27" t="n">
         <v>342.0654830499069</v>
@@ -6314,16 +6314,16 @@
         <v>675.945234055499</v>
       </c>
       <c r="M27" t="n">
-        <v>1045.216882605862</v>
+        <v>916.5673622804454</v>
       </c>
       <c r="N27" t="n">
-        <v>1298.043063762312</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O27" t="n">
-        <v>1520.330608861244</v>
+        <v>1391.681088535828</v>
       </c>
       <c r="P27" t="n">
-        <v>1690.906069190759</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q27" t="n">
         <v>1784.713972589205</v>
@@ -6338,7 +6338,7 @@
         <v>1646.959067601334</v>
       </c>
       <c r="U27" t="n">
-        <v>1449.687100466377</v>
+        <v>1449.687100466378</v>
       </c>
       <c r="V27" t="n">
         <v>1235.975573459411</v>
@@ -6347,10 +6347,10 @@
         <v>1022.74240519574</v>
       </c>
       <c r="X27" t="n">
-        <v>846.4164233346326</v>
+        <v>846.416423334633</v>
       </c>
       <c r="Y27" t="n">
-        <v>687.0144636984626</v>
+        <v>687.014463698463</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>625.845581586811</v>
+        <v>906.1214825187104</v>
       </c>
       <c r="C28" t="n">
-        <v>454.7522091485275</v>
+        <v>735.0281100804269</v>
       </c>
       <c r="D28" t="n">
-        <v>454.7522091485275</v>
+        <v>735.0281100804269</v>
       </c>
       <c r="E28" t="n">
-        <v>454.7522091485275</v>
+        <v>574.1172949487463</v>
       </c>
       <c r="F28" t="n">
-        <v>290.1210832591188</v>
+        <v>409.4861690593376</v>
       </c>
       <c r="G28" t="n">
-        <v>123.8754111516283</v>
+        <v>243.2404969518471</v>
       </c>
       <c r="H28" t="n">
-        <v>123.8754111516283</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="I28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J28" t="n">
-        <v>121.4466158487821</v>
+        <v>94.33720608195767</v>
       </c>
       <c r="K28" t="n">
-        <v>381.3518718413937</v>
+        <v>363.2966816288315</v>
       </c>
       <c r="L28" t="n">
-        <v>787.6507323346074</v>
+        <v>455.6164308870221</v>
       </c>
       <c r="M28" t="n">
-        <v>1231.274917878402</v>
+        <v>899.2406164308172</v>
       </c>
       <c r="N28" t="n">
-        <v>1330.769189070145</v>
+        <v>1330.769189070146</v>
       </c>
       <c r="O28" t="n">
         <v>1414.441451118524</v>
@@ -6414,22 +6414,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T28" t="n">
-        <v>1887.20023676311</v>
+        <v>1651.944387871395</v>
       </c>
       <c r="U28" t="n">
-        <v>1604.456892161978</v>
+        <v>1369.201043270262</v>
       </c>
       <c r="V28" t="n">
-        <v>1367.994806829489</v>
+        <v>1369.201043270262</v>
       </c>
       <c r="W28" t="n">
-        <v>1088.925142338363</v>
+        <v>1369.201043270262</v>
       </c>
       <c r="X28" t="n">
-        <v>850.5812801980463</v>
+        <v>1130.857181129946</v>
       </c>
       <c r="Y28" t="n">
-        <v>625.845581586811</v>
+        <v>906.1214825187104</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>447.8685954219921</v>
+        <v>1476.979057098621</v>
       </c>
       <c r="C29" t="n">
-        <v>37.74400473526219</v>
+        <v>1476.979057098621</v>
       </c>
       <c r="D29" t="n">
-        <v>37.74400473526219</v>
+        <v>1279.603067784</v>
       </c>
       <c r="E29" t="n">
-        <v>37.74400473526219</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F29" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G29" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H29" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I29" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J29" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K29" t="n">
         <v>342.4771847987904</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N29" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P29" t="n">
         <v>1687.808675484973</v>
@@ -6499,16 +6499,16 @@
         <v>1887.20023676311</v>
       </c>
       <c r="V29" t="n">
-        <v>1537.362682099591</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="W29" t="n">
-        <v>1153.602381234759</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="X29" t="n">
-        <v>752.9589834037117</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="Y29" t="n">
-        <v>752.9589834037117</v>
+        <v>1887.20023676311</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>683.0535714964635</v>
+        <v>546.7114310628764</v>
       </c>
       <c r="C30" t="n">
-        <v>549.0585002454092</v>
+        <v>412.7163598118221</v>
       </c>
       <c r="D30" t="n">
-        <v>432.1613424648016</v>
+        <v>295.8192020312145</v>
       </c>
       <c r="E30" t="n">
-        <v>311.6685264571296</v>
+        <v>175.3263860235425</v>
       </c>
       <c r="F30" t="n">
-        <v>202.7086466396342</v>
+        <v>66.36650620604706</v>
       </c>
       <c r="G30" t="n">
-        <v>96.91695860170567</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H30" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28095199337145</v>
+        <v>57.84875584306886</v>
       </c>
       <c r="J30" t="n">
-        <v>98.39707907527368</v>
+        <v>117.9648829249711</v>
       </c>
       <c r="K30" t="n">
-        <v>232.7978194276822</v>
+        <v>252.3656232773796</v>
       </c>
       <c r="L30" t="n">
-        <v>699.879878026552</v>
+        <v>451.8446339305631</v>
       </c>
       <c r="M30" t="n">
-        <v>940.5020062514984</v>
+        <v>918.9266925294328</v>
       </c>
       <c r="N30" t="n">
-        <v>1386.012780239293</v>
+        <v>1171.752873685883</v>
       </c>
       <c r="O30" t="n">
-        <v>1608.300325338225</v>
+        <v>1394.040418784815</v>
       </c>
       <c r="P30" t="n">
-        <v>1778.87578566774</v>
+        <v>1564.61587911433</v>
       </c>
       <c r="Q30" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589205</v>
       </c>
       <c r="R30" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S30" t="n">
-        <v>1887.20023676311</v>
+        <v>1801.47043908421</v>
       </c>
       <c r="T30" t="n">
-        <v>1783.301208034922</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U30" t="n">
-        <v>1586.029240899965</v>
+        <v>1449.687100466378</v>
       </c>
       <c r="V30" t="n">
-        <v>1372.317713892999</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W30" t="n">
-        <v>1159.084545629327</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X30" t="n">
-        <v>982.7585637682201</v>
+        <v>846.416423334633</v>
       </c>
       <c r="Y30" t="n">
-        <v>823.3566041320502</v>
+        <v>687.014463698463</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>360.6253154184891</v>
+        <v>1086.925631592917</v>
       </c>
       <c r="C31" t="n">
-        <v>189.5319429802056</v>
+        <v>915.8322591546337</v>
       </c>
       <c r="D31" t="n">
-        <v>189.5319429802056</v>
+        <v>756.3376144775436</v>
       </c>
       <c r="E31" t="n">
-        <v>189.5319429802056</v>
+        <v>595.4267993458632</v>
       </c>
       <c r="F31" t="n">
-        <v>189.5319429802056</v>
+        <v>430.7956734564545</v>
       </c>
       <c r="G31" t="n">
-        <v>37.74400473526219</v>
+        <v>264.550001348964</v>
       </c>
       <c r="H31" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="I31" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J31" t="n">
-        <v>56.4452522174457</v>
+        <v>94.33720608195767</v>
       </c>
       <c r="K31" t="n">
-        <v>119.1245341786054</v>
+        <v>363.2966816288315</v>
       </c>
       <c r="L31" t="n">
-        <v>525.4233946718191</v>
+        <v>455.6164308870221</v>
       </c>
       <c r="M31" t="n">
-        <v>710.4398172179135</v>
+        <v>899.2406164308172</v>
       </c>
       <c r="N31" t="n">
-        <v>1141.968389857242</v>
+        <v>1330.769189070146</v>
       </c>
       <c r="O31" t="n">
-        <v>1540.715411324361</v>
+        <v>1414.441451118524</v>
       </c>
       <c r="P31" t="n">
-        <v>1865.488871500339</v>
+        <v>1739.214911294502</v>
       </c>
       <c r="Q31" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="R31" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S31" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T31" t="n">
-        <v>1847.103336716821</v>
+        <v>1737.704898738513</v>
       </c>
       <c r="U31" t="n">
-        <v>1564.359992115689</v>
+        <v>1737.704898738513</v>
       </c>
       <c r="V31" t="n">
-        <v>1290.474247055211</v>
+        <v>1737.704898738513</v>
       </c>
       <c r="W31" t="n">
-        <v>1011.404582564085</v>
+        <v>1737.704898738513</v>
       </c>
       <c r="X31" t="n">
-        <v>773.0607204237688</v>
+        <v>1499.361036598197</v>
       </c>
       <c r="Y31" t="n">
-        <v>548.3250218125335</v>
+        <v>1274.625337986962</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1266.672740812035</v>
+        <v>45.80245614815146</v>
       </c>
       <c r="C32" t="n">
-        <v>856.548150125305</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D32" t="n">
-        <v>452.0842202183655</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E32" t="n">
         <v>37.74400473526219</v>
@@ -6709,7 +6709,7 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655642</v>
       </c>
       <c r="N32" t="n">
         <v>1187.216805582613</v>
@@ -6724,28 +6724,28 @@
         <v>1835.740277181654</v>
       </c>
       <c r="R32" t="n">
-        <v>1887.200236763109</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S32" t="n">
-        <v>1887.200236763109</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.200236763109</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U32" t="n">
-        <v>1887.200236763109</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="V32" t="n">
-        <v>1887.200236763109</v>
+        <v>1240.720609729382</v>
       </c>
       <c r="W32" t="n">
-        <v>1887.200236763109</v>
+        <v>856.9603088645508</v>
       </c>
       <c r="X32" t="n">
-        <v>1887.200236763109</v>
+        <v>856.9603088645508</v>
       </c>
       <c r="Y32" t="n">
-        <v>1676.893920476524</v>
+        <v>456.0236358126409</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>683.0535714964635</v>
+        <v>632.4412287417757</v>
       </c>
       <c r="C33" t="n">
-        <v>549.0585002454092</v>
+        <v>498.4461574907214</v>
       </c>
       <c r="D33" t="n">
-        <v>432.1613424648016</v>
+        <v>381.5489997101138</v>
       </c>
       <c r="E33" t="n">
-        <v>311.6685264571296</v>
+        <v>261.0561837024418</v>
       </c>
       <c r="F33" t="n">
-        <v>202.7086466396342</v>
+        <v>152.0963038849464</v>
       </c>
       <c r="G33" t="n">
-        <v>96.91695860170566</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H33" t="n">
         <v>37.74400473526219</v>
@@ -6779,52 +6779,52 @@
         <v>38.28095199337145</v>
       </c>
       <c r="J33" t="n">
-        <v>98.39707907527367</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K33" t="n">
-        <v>232.7978194276822</v>
+        <v>476.4662234023154</v>
       </c>
       <c r="L33" t="n">
-        <v>432.2768300808657</v>
+        <v>675.945234055499</v>
       </c>
       <c r="M33" t="n">
-        <v>672.8989583058121</v>
+        <v>916.5673622804454</v>
       </c>
       <c r="N33" t="n">
-        <v>925.7251394622621</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O33" t="n">
-        <v>1392.807198061132</v>
+        <v>1391.681088535828</v>
       </c>
       <c r="P33" t="n">
-        <v>1563.382658390646</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q33" t="n">
-        <v>1784.713972589204</v>
+        <v>1872.683689066186</v>
       </c>
       <c r="R33" t="n">
-        <v>1887.200236763109</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S33" t="n">
-        <v>1801.470439084209</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T33" t="n">
-        <v>1646.959067601334</v>
+        <v>1732.688865280234</v>
       </c>
       <c r="U33" t="n">
-        <v>1449.687100466377</v>
+        <v>1535.416898145277</v>
       </c>
       <c r="V33" t="n">
-        <v>1235.97557345941</v>
+        <v>1321.705371138311</v>
       </c>
       <c r="W33" t="n">
-        <v>1022.742405195739</v>
+        <v>1108.47220287464</v>
       </c>
       <c r="X33" t="n">
-        <v>846.4164233346321</v>
+        <v>932.1462210135323</v>
       </c>
       <c r="Y33" t="n">
-        <v>687.0144636984621</v>
+        <v>772.7442613773624</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>643.368660019621</v>
+        <v>584.9554611577346</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2752875813375</v>
+        <v>584.9554611577346</v>
       </c>
       <c r="D34" t="n">
-        <v>312.7806429042475</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="E34" t="n">
-        <v>312.7806429042475</v>
+        <v>264.550001348964</v>
       </c>
       <c r="F34" t="n">
-        <v>148.1495170148388</v>
+        <v>264.550001348964</v>
       </c>
       <c r="G34" t="n">
-        <v>37.74400473526219</v>
+        <v>264.550001348964</v>
       </c>
       <c r="H34" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="I34" t="n">
         <v>37.74400473526219</v>
       </c>
       <c r="J34" t="n">
-        <v>56.44525221744568</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K34" t="n">
-        <v>325.4047277643195</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L34" t="n">
-        <v>611.7819811884035</v>
+        <v>485.5080209825667</v>
       </c>
       <c r="M34" t="n">
-        <v>710.4398172179131</v>
+        <v>584.1658570120762</v>
       </c>
       <c r="N34" t="n">
-        <v>1141.968389857241</v>
+        <v>1015.694429651405</v>
       </c>
       <c r="O34" t="n">
-        <v>1540.71541132436</v>
+        <v>1414.441451118523</v>
       </c>
       <c r="P34" t="n">
-        <v>1865.488871500339</v>
+        <v>1739.214911294502</v>
       </c>
       <c r="Q34" t="n">
-        <v>1887.200236763109</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="R34" t="n">
         <v>1847.103336716821</v>
       </c>
       <c r="S34" t="n">
-        <v>1847.103336716821</v>
+        <v>1678.221080048313</v>
       </c>
       <c r="T34" t="n">
-        <v>1847.103336716821</v>
+        <v>1442.965231156598</v>
       </c>
       <c r="U34" t="n">
-        <v>1847.103336716821</v>
+        <v>1160.221886555466</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.217591656343</v>
+        <v>886.3361414949875</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.147927165217</v>
+        <v>607.2664770038618</v>
       </c>
       <c r="X34" t="n">
-        <v>1055.804065024901</v>
+        <v>584.9554611577346</v>
       </c>
       <c r="Y34" t="n">
-        <v>831.0683664136653</v>
+        <v>584.9554611577346</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1687.703152858347</v>
+        <v>1402.023038200838</v>
       </c>
       <c r="C35" t="n">
-        <v>1277.578562171617</v>
+        <v>1402.023038200838</v>
       </c>
       <c r="D35" t="n">
-        <v>873.114632264678</v>
+        <v>997.5591082938981</v>
       </c>
       <c r="E35" t="n">
-        <v>458.7744167815746</v>
+        <v>583.2188928107948</v>
       </c>
       <c r="F35" t="n">
-        <v>37.7440047352622</v>
+        <v>162.1884807644824</v>
       </c>
       <c r="G35" t="n">
-        <v>37.7440047352622</v>
+        <v>162.1884807644824</v>
       </c>
       <c r="H35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I35" t="n">
-        <v>37.74400473526221</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J35" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512228</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987901</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131295</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N35" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P35" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q35" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R35" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="S35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="T35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="U35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="V35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.703152858347</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="Y35" t="n">
-        <v>1687.703152858347</v>
+        <v>1402.023038200838</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>683.0535714964635</v>
+        <v>546.7114310628755</v>
       </c>
       <c r="C36" t="n">
-        <v>549.0585002454092</v>
+        <v>412.7163598118212</v>
       </c>
       <c r="D36" t="n">
-        <v>432.1613424648016</v>
+        <v>295.8192020312136</v>
       </c>
       <c r="E36" t="n">
-        <v>311.6685264571296</v>
+        <v>175.3263860235416</v>
       </c>
       <c r="F36" t="n">
-        <v>202.7086466396342</v>
+        <v>66.36650620604615</v>
       </c>
       <c r="G36" t="n">
-        <v>96.91695860170569</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H36" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J36" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527367</v>
       </c>
       <c r="K36" t="n">
         <v>232.7978194276822</v>
@@ -7025,43 +7025,43 @@
         <v>432.2768300808657</v>
       </c>
       <c r="M36" t="n">
-        <v>899.3588886797354</v>
+        <v>672.8989583058121</v>
       </c>
       <c r="N36" t="n">
-        <v>1152.185069836185</v>
+        <v>925.7251394622621</v>
       </c>
       <c r="O36" t="n">
-        <v>1608.300325338226</v>
+        <v>1148.012684561194</v>
       </c>
       <c r="P36" t="n">
-        <v>1778.87578566774</v>
+        <v>1318.588144890709</v>
       </c>
       <c r="Q36" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589204</v>
       </c>
       <c r="R36" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="S36" t="n">
-        <v>1887.20023676311</v>
+        <v>1801.470439084209</v>
       </c>
       <c r="T36" t="n">
-        <v>1732.688865280234</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U36" t="n">
-        <v>1586.029240899965</v>
+        <v>1449.687100466377</v>
       </c>
       <c r="V36" t="n">
-        <v>1372.317713892999</v>
+        <v>1235.97557345941</v>
       </c>
       <c r="W36" t="n">
-        <v>1159.084545629327</v>
+        <v>1022.742405195739</v>
       </c>
       <c r="X36" t="n">
-        <v>982.7585637682201</v>
+        <v>846.4164233346321</v>
       </c>
       <c r="Y36" t="n">
-        <v>823.3566041320502</v>
+        <v>687.0144636984621</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.4185949325979</v>
+        <v>957.3513051263876</v>
       </c>
       <c r="C37" t="n">
-        <v>178.4185949325979</v>
+        <v>786.2579326881041</v>
       </c>
       <c r="D37" t="n">
-        <v>178.4185949325979</v>
+        <v>626.7632880110141</v>
       </c>
       <c r="E37" t="n">
-        <v>178.4185949325979</v>
+        <v>465.8524728793336</v>
       </c>
       <c r="F37" t="n">
-        <v>178.4185949325979</v>
+        <v>301.2213469899248</v>
       </c>
       <c r="G37" t="n">
-        <v>178.4185949325979</v>
+        <v>134.9756748824344</v>
       </c>
       <c r="H37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J37" t="n">
-        <v>121.4466158487821</v>
+        <v>56.44525221744568</v>
       </c>
       <c r="K37" t="n">
-        <v>390.4060913956559</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L37" t="n">
-        <v>796.7049518888696</v>
+        <v>525.4233946718191</v>
       </c>
       <c r="M37" t="n">
-        <v>1240.329137432665</v>
+        <v>969.0475802156142</v>
       </c>
       <c r="N37" t="n">
-        <v>1339.823408624407</v>
+        <v>1400.576152854943</v>
       </c>
       <c r="O37" t="n">
-        <v>1423.495670672786</v>
+        <v>1799.323174322062</v>
       </c>
       <c r="P37" t="n">
-        <v>1739.214911294502</v>
+        <v>1863.199151024922</v>
       </c>
       <c r="Q37" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="R37" t="n">
-        <v>1847.103336716822</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="S37" t="n">
-        <v>1678.221080048314</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.965231156598</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="U37" t="n">
-        <v>1160.221886555466</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="V37" t="n">
-        <v>886.3361414949879</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="W37" t="n">
-        <v>607.2664770038623</v>
+        <v>1608.130572271984</v>
       </c>
       <c r="X37" t="n">
-        <v>368.9226148635457</v>
+        <v>1369.786710131667</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.4185949325979</v>
+        <v>1145.051011520432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>582.9026328240099</v>
+        <v>1402.023038200838</v>
       </c>
       <c r="C38" t="n">
-        <v>582.9026328240099</v>
+        <v>991.8984475141077</v>
       </c>
       <c r="D38" t="n">
-        <v>582.9026328240099</v>
+        <v>587.4345176071682</v>
       </c>
       <c r="E38" t="n">
-        <v>168.5624173409066</v>
+        <v>173.0943021240649</v>
       </c>
       <c r="F38" t="n">
         <v>37.74400473526219</v>
@@ -7183,7 +7183,7 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655642</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
@@ -7204,22 +7204,22 @@
         <v>1802.959711252747</v>
       </c>
       <c r="T38" t="n">
-        <v>1590.558164392901</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="U38" t="n">
-        <v>1333.676860539439</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="V38" t="n">
-        <v>983.8393058759198</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="W38" t="n">
-        <v>983.8393058759198</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="X38" t="n">
-        <v>983.8393058759198</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="Y38" t="n">
-        <v>582.9026328240099</v>
+        <v>1402.023038200838</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>38.28095199337145</v>
       </c>
       <c r="J39" t="n">
-        <v>98.39707907527367</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K39" t="n">
-        <v>232.7978194276822</v>
+        <v>476.4662234023154</v>
       </c>
       <c r="L39" t="n">
-        <v>432.2768300808657</v>
+        <v>675.945234055499</v>
       </c>
       <c r="M39" t="n">
-        <v>672.8989583058121</v>
+        <v>916.5673622804454</v>
       </c>
       <c r="N39" t="n">
-        <v>925.7251394622621</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O39" t="n">
-        <v>1311.79372706887</v>
+        <v>1391.681088535828</v>
       </c>
       <c r="P39" t="n">
-        <v>1778.875785667739</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q39" t="n">
-        <v>1872.683689066185</v>
+        <v>1784.713972589204</v>
       </c>
       <c r="R39" t="n">
         <v>1887.200236763109</v>
@@ -7283,7 +7283,7 @@
         <v>1887.200236763109</v>
       </c>
       <c r="T39" t="n">
-        <v>1783.301208034922</v>
+        <v>1732.688865280234</v>
       </c>
       <c r="U39" t="n">
         <v>1586.029240899965</v>
@@ -7317,16 +7317,16 @@
         <v>352.877542950536</v>
       </c>
       <c r="E40" t="n">
-        <v>191.9667278188555</v>
+        <v>352.877542950536</v>
       </c>
       <c r="F40" t="n">
-        <v>191.9667278188555</v>
+        <v>352.877542950536</v>
       </c>
       <c r="G40" t="n">
-        <v>37.74400473526219</v>
+        <v>186.6318708430455</v>
       </c>
       <c r="H40" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="I40" t="n">
         <v>37.74400473526219</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1402.3163134217</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="C41" t="n">
-        <v>1402.3163134217</v>
+        <v>1477.07564607638</v>
       </c>
       <c r="D41" t="n">
-        <v>1279.603067784</v>
+        <v>1072.61171616944</v>
       </c>
       <c r="E41" t="n">
-        <v>865.2628523008966</v>
+        <v>658.2715006863368</v>
       </c>
       <c r="F41" t="n">
-        <v>444.2324402545842</v>
+        <v>237.2410886400244</v>
       </c>
       <c r="G41" t="n">
-        <v>37.74400473526219</v>
+        <v>237.2410886400244</v>
       </c>
       <c r="H41" t="n">
         <v>37.74400473526219</v>
       </c>
       <c r="I41" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526215</v>
       </c>
       <c r="J41" t="n">
-        <v>151.4749218512229</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K41" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L41" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655642</v>
       </c>
       <c r="N41" t="n">
         <v>1187.216805582613</v>
@@ -7435,28 +7435,28 @@
         <v>1835.740277181654</v>
       </c>
       <c r="R41" t="n">
-        <v>1887.200236763109</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S41" t="n">
-        <v>1802.959711252747</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1802.959711252747</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U41" t="n">
-        <v>1802.959711252747</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="V41" t="n">
-        <v>1802.959711252747</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="W41" t="n">
-        <v>1802.959711252747</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="X41" t="n">
-        <v>1402.3163134217</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="Y41" t="n">
-        <v>1402.3163134217</v>
+        <v>1887.20023676311</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>546.7114310628755</v>
+        <v>546.7114310628759</v>
       </c>
       <c r="C42" t="n">
-        <v>412.7163598118212</v>
+        <v>412.7163598118216</v>
       </c>
       <c r="D42" t="n">
-        <v>295.8192020312136</v>
+        <v>295.819202031214</v>
       </c>
       <c r="E42" t="n">
-        <v>175.3263860235416</v>
+        <v>175.326386023542</v>
       </c>
       <c r="F42" t="n">
-        <v>66.36650620604615</v>
+        <v>66.36650620604661</v>
       </c>
       <c r="G42" t="n">
         <v>37.74400473526219</v>
@@ -7490,34 +7490,34 @@
         <v>38.28095199337145</v>
       </c>
       <c r="J42" t="n">
-        <v>98.39707907527367</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K42" t="n">
-        <v>232.7978194276822</v>
+        <v>476.4662234023154</v>
       </c>
       <c r="L42" t="n">
-        <v>432.2768300808657</v>
+        <v>675.945234055499</v>
       </c>
       <c r="M42" t="n">
-        <v>672.8989583058121</v>
+        <v>916.5673622804454</v>
       </c>
       <c r="N42" t="n">
-        <v>1139.981016904682</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O42" t="n">
-        <v>1362.268562003614</v>
+        <v>1391.681088535828</v>
       </c>
       <c r="P42" t="n">
-        <v>1532.844022333129</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q42" t="n">
-        <v>1872.683689066185</v>
+        <v>1784.713972589204</v>
       </c>
       <c r="R42" t="n">
-        <v>1887.200236763109</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S42" t="n">
-        <v>1801.470439084209</v>
+        <v>1801.47043908421</v>
       </c>
       <c r="T42" t="n">
         <v>1646.959067601334</v>
@@ -7526,16 +7526,16 @@
         <v>1449.687100466377</v>
       </c>
       <c r="V42" t="n">
-        <v>1235.97557345941</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W42" t="n">
-        <v>1022.742405195739</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X42" t="n">
-        <v>846.4164233346321</v>
+        <v>846.4164233346326</v>
       </c>
       <c r="Y42" t="n">
-        <v>687.0144636984621</v>
+        <v>687.0144636984626</v>
       </c>
     </row>
     <row r="43">
@@ -7545,52 +7545,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.8373771735457</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="C43" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="D43" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="E43" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="F43" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="G43" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="H43" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="I43" t="n">
         <v>37.74400473526219</v>
       </c>
       <c r="J43" t="n">
-        <v>56.44525221744568</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K43" t="n">
-        <v>119.1245341786054</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L43" t="n">
-        <v>525.4233946718191</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M43" t="n">
-        <v>969.0475802156142</v>
+        <v>895.3627879183791</v>
       </c>
       <c r="N43" t="n">
-        <v>1400.576152854943</v>
+        <v>1015.694429651405</v>
       </c>
       <c r="O43" t="n">
-        <v>1540.71541132436</v>
+        <v>1414.441451118523</v>
       </c>
       <c r="P43" t="n">
-        <v>1865.488871500339</v>
+        <v>1739.214911294502</v>
       </c>
       <c r="Q43" t="n">
-        <v>1887.200236763109</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="R43" t="n">
         <v>1847.103336716821</v>
@@ -7602,19 +7602,19 @@
         <v>1442.965231156598</v>
       </c>
       <c r="U43" t="n">
-        <v>1160.221886555465</v>
+        <v>1160.221886555466</v>
       </c>
       <c r="V43" t="n">
-        <v>886.3361414949873</v>
+        <v>886.3361414949875</v>
       </c>
       <c r="W43" t="n">
-        <v>607.2664770038616</v>
+        <v>607.2664770038618</v>
       </c>
       <c r="X43" t="n">
-        <v>368.922614863545</v>
+        <v>368.9226148635452</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.8373771735457</v>
+        <v>144.1869162523099</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="C44" t="n">
-        <v>1973.541670112621</v>
+        <v>1357.324758956941</v>
       </c>
       <c r="D44" t="n">
-        <v>1569.077740205682</v>
+        <v>952.860829050001</v>
       </c>
       <c r="E44" t="n">
-        <v>1154.737524722578</v>
+        <v>538.5206135668977</v>
       </c>
       <c r="F44" t="n">
-        <v>733.707112676266</v>
+        <v>117.4902015205853</v>
       </c>
       <c r="G44" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H44" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746588</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492902</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752964</v>
+        <v>372.259305875297</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879082</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501312</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P44" t="n">
         <v>1806.502667397418</v>
@@ -7681,19 +7681,19 @@
         <v>2024.321847303436</v>
       </c>
       <c r="U44" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="V44" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="W44" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="X44" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="Y44" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.44934964367</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090089</v>
       </c>
       <c r="C45" t="n">
-        <v>551.173218557955</v>
+        <v>551.1732185579547</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773471</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696751</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521797</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692776</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="I45" t="n">
-        <v>62.57863487475245</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J45" t="n">
-        <v>287.4527398817693</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K45" t="n">
-        <v>431.1747324130608</v>
+        <v>664.3550098615119</v>
       </c>
       <c r="L45" t="n">
-        <v>643.1873169347181</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M45" t="n">
-        <v>898.4355346936861</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N45" t="n">
         <v>1399.455191901287</v>
@@ -7757,7 +7757,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U45" t="n">
         <v>1588.14395921251</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807655</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445956</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>877.301117976707</v>
+        <v>96.90316016604586</v>
       </c>
       <c r="C46" t="n">
-        <v>706.2077455384235</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="D46" t="n">
-        <v>546.7131008613335</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="E46" t="n">
-        <v>385.802285729653</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="F46" t="n">
-        <v>346.9183164103185</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="G46" t="n">
-        <v>180.7220212444305</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H46" t="n">
         <v>40.48643694606872</v>
@@ -7806,52 +7806,52 @@
         <v>40.48643694606872</v>
       </c>
       <c r="J46" t="n">
-        <v>62.6091642990925</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>130.910988725128</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L46" t="n">
-        <v>372.1997937892743</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M46" t="n">
-        <v>823.4100121751549</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N46" t="n">
-        <v>1262.344238751201</v>
+        <v>1373.796468531156</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.931580268703</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R46" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S46" t="n">
-        <v>1856.300096062672</v>
+        <v>1818.423362863341</v>
       </c>
       <c r="T46" t="n">
-        <v>1856.300096062672</v>
+        <v>1583.378488176654</v>
       </c>
       <c r="U46" t="n">
-        <v>1856.300096062672</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.414351002194</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="W46" t="n">
-        <v>1303.344686511068</v>
+        <v>747.6824273116422</v>
       </c>
       <c r="X46" t="n">
-        <v>1065.000824370751</v>
+        <v>509.3385651713256</v>
       </c>
       <c r="Y46" t="n">
-        <v>1065.000824370751</v>
+        <v>284.6028665600903</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.21809620174883</v>
+        <v>31.21809620174887</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>6.22858451822664</v>
+        <v>6.228584518226675</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.33532272952759</v>
+        <v>29.33532272952761</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.11334984944293</v>
+        <v>23.11334984944295</v>
       </c>
       <c r="K13" t="n">
-        <v>5.712245507081541</v>
+        <v>81.66010830944104</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>69.42275263851191</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>66.36346275780024</v>
+        <v>51.84526969936893</v>
       </c>
       <c r="O13" t="n">
-        <v>67.41193519827873</v>
+        <v>75.40501809286229</v>
       </c>
       <c r="P13" t="n">
-        <v>83.28144447453261</v>
+        <v>83.28144447453249</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.81784642339688</v>
+        <v>27.81784642339691</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21809620174883</v>
+        <v>31.21809620174888</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>6.22858451822664</v>
+        <v>6.228584518226683</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.33532272952759</v>
+        <v>29.33532272952762</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.11334984944293</v>
+        <v>23.11334984944295</v>
       </c>
       <c r="K16" t="n">
-        <v>81.6601083094412</v>
+        <v>5.712245507081576</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>69.42275263851197</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>66.36346275780029</v>
+        <v>51.84526969936893</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>75.40501809286226</v>
       </c>
       <c r="P16" t="n">
-        <v>74.74551687045175</v>
+        <v>83.28144447453251</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.81784642339688</v>
+        <v>103.7657092257564</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>159.485599396409</v>
+        <v>4.193651045197257</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>155.2919483512117</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>199.3688773843008</v>
       </c>
       <c r="L19" t="n">
-        <v>156.5558017088826</v>
+        <v>87.45024327215097</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9336,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>187.504163219979</v>
       </c>
       <c r="P19" t="n">
         <v>199.9282760679553</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>9.150849970123488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>83.45318857998259</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.4855993964088</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.82588865527179</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>199.3688773843008</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>181.4890873650639</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>178.0868137369348</v>
       </c>
       <c r="N22" t="n">
         <v>175.8584291375</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>187.504163219979</v>
       </c>
       <c r="P22" t="n">
-        <v>59.22971827795731</v>
+        <v>74.49670607040821</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.150849970123481</v>
+        <v>9.150849970123488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>218.8073099014114</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>199.0418514673734</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>55.93065478517368</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>111.0996344694203</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>129.9490104297136</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>38.27470087324441</v>
       </c>
       <c r="K28" t="n">
-        <v>199.2181555873252</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10196,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>270.3061090360467</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>228.7474044181043</v>
       </c>
       <c r="N30" t="n">
-        <v>194.630901849843</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>127.5658485620496</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>38.27470087324441</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>87.23089547129783</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>247.2671853534718</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.8115260607193</v>
+        <v>218.8073099014115</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>196.0176809756499</v>
+        <v>2.81028316032338</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7474044181043</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>236.1896064677858</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>376.0787114141912</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10755,16 +10755,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>254.387135271572</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>2.312848965067666</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>165.4353964723993</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>299.5016144134898</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>129.9490104297132</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>216.4200782246663</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>248.5169326612228</v>
+        <v>129.9490104297132</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>21.04784903159856</v>
       </c>
       <c r="O43" t="n">
-        <v>57.03737012226185</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>160.9134060018834</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>170.0847972377574</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>143.2061992167003</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>78.12986811408999</v>
       </c>
       <c r="P46" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>330.171105065485</v>
+        <v>339.2240903115264</v>
       </c>
       <c r="C11" t="n">
-        <v>330.0754819775029</v>
+        <v>330.0754819775031</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23278,7 +23278,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I11" t="n">
-        <v>51.06139321367293</v>
+        <v>51.06139321367296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>329.7420862964187</v>
+        <v>320.6891010503775</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.9794435190312</v>
+        <v>320.9794435190313</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>72.00512475291254</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>39.78032340044201</v>
       </c>
       <c r="E12" t="n">
-        <v>43.34002504523569</v>
+        <v>43.34002504523582</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696099</v>
       </c>
       <c r="G12" t="n">
-        <v>29.49455899848378</v>
+        <v>105.4424218008434</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I12" t="n">
-        <v>2.621308011710606</v>
+        <v>4.09088792211929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23396,7 +23396,7 @@
         <v>195.3458692164555</v>
       </c>
       <c r="V12" t="n">
-        <v>135.6265489345369</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.8748465277444</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>93.43457591154106</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>83.35384417800412</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>87.03695182815518</v>
       </c>
       <c r="G13" t="n">
-        <v>165.1773242806354</v>
+        <v>89.22946147827598</v>
       </c>
       <c r="H13" t="n">
-        <v>144.5500124639718</v>
+        <v>68.60214966161233</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1365670983785</v>
+        <v>36.2416895420603</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.4092273259303</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S13" t="n">
         <v>177.547131831091</v>
@@ -23484,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>155.5934640688046</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>330.1711050654851</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>330.0754819775031</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>394.3633289856269</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>340.8722451234896</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>327.8001522282802</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H14" t="n">
-        <v>222.7062543123339</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>51.06139321367296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>320.6891010503775</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>330.0324287650726</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I15" t="n">
-        <v>4.090887922119276</v>
+        <v>4.09088792211929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>155.8226171592196</v>
       </c>
       <c r="U15" t="n">
-        <v>119.3980064140958</v>
+        <v>128.4509916601373</v>
       </c>
       <c r="V15" t="n">
-        <v>135.6265489345369</v>
+        <v>135.6265489345371</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786751</v>
       </c>
       <c r="X15" t="n">
-        <v>98.61485924013647</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>90.91306248348994</v>
+        <v>81.86007723744882</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.8748465277443</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>93.434575911541</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>98.28244672431711</v>
+        <v>89.22946147827599</v>
       </c>
       <c r="H16" t="n">
-        <v>144.5500124639718</v>
+        <v>68.60214966161234</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1365670983785</v>
+        <v>27.18870429601905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.4092273259303</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>177.547131831091</v>
@@ -23712,7 +23712,7 @@
         <v>279.9483170948056</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>270.6612373794854</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -23721,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.5404788227633</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>216.8113975050884</v>
+        <v>190.640255854176</v>
       </c>
       <c r="F17" t="n">
         <v>197.2635504517531</v>
       </c>
       <c r="G17" t="n">
-        <v>183.694482710039</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H17" t="n">
         <v>74.00791599383138</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90177044380178</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.8998645763261</v>
+        <v>154.6707454956014</v>
       </c>
       <c r="U17" t="n">
         <v>254.3786899365281</v>
@@ -23816,19 +23816,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>8.944207866664527</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>28.93299239545678</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T18" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>149.6591658822763</v>
+        <v>161.8197322208208</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23940,16 +23940,16 @@
         <v>56.38567239618433</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T19" t="n">
-        <v>14.93269702790724</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9361575053235</v>
+        <v>60.37960003122731</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>51.59033013577704</v>
       </c>
       <c r="W19" t="n">
         <v>56.72241037211813</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.931784151026704</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186.5624103937483</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23977,19 +23977,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>190.640255854176</v>
       </c>
       <c r="F20" t="n">
-        <v>197.2635504517531</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>183.694482710039</v>
       </c>
       <c r="H20" t="n">
-        <v>293.5644734679276</v>
+        <v>74.00791599383138</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90177044380177</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>213.8998645763261</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3786899365281</v>
+        <v>60.99327411334426</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24034,7 +24034,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>203.2515480295531</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24050,7 +24050,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T21" t="n">
         <v>154.7508334693185</v>
       </c>
       <c r="U21" t="n">
-        <v>191.4155037387654</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>73.16637812093475</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>119.155399374068</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9543984734636</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>141.216846521298</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I22" t="n">
-        <v>96.43258009724633</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S22" t="n">
         <v>173.6621429915595</v>
@@ -24183,19 +24183,19 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U22" t="n">
-        <v>60.37960003122731</v>
+        <v>279.9361575053235</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>56.72241037211813</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>2.931784151026704</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,13 +24214,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
         <v>285.0899515417858</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>242.3488647437979</v>
+        <v>195.7384895885254</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>50.10621932714125</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>50.1062193271413</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>42.94765210784594</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S25" t="n">
-        <v>167.1934341018228</v>
+        <v>24.3080252661982</v>
       </c>
       <c r="T25" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>402.4235511641288</v>
@@ -24499,19 +24499,19 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3124908149276</v>
+        <v>145.9081752644455</v>
       </c>
       <c r="V26" t="n">
-        <v>172.6818883027542</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>27.10843800993081</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>76.39749470147265</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.2678442953623</v>
+        <v>21.09640935314573</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>37.0494231307093</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104.0794837659421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>205.0170611863956</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.0899515417858</v>
@@ -24739,13 +24739,13 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>76.3974947014722</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>50.10621932714083</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>14.31315652392161</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S31" t="n">
         <v>167.1934341018228</v>
       </c>
       <c r="T31" t="n">
-        <v>232.9032904027983</v>
+        <v>84.90290575844755</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>398.0454778811022</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>188.7240531976718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>134.9787190292521</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>50.10621932714093</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>55.28175822963478</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>213.8725178312475</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
-        <v>285.0899515417858</v>
+        <v>161.8899202728578</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.2775313912475</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>199.134850787022</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>76.39749470147309</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>50.10621932714048</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>43.00849084966188</v>
       </c>
       <c r="I37" t="n">
         <v>85.27009235220248</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.88936189348462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>287.3098794462614</v>
+        <v>282.8233135109346</v>
       </c>
       <c r="G38" t="n">
         <v>402.4235511641288</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25523,10 +25523,10 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T39" t="n">
-        <v>50.10621932714128</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.10621932714114</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>11.90271953365823</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.2678442953623</v>
+        <v>77.13894920085929</v>
       </c>
       <c r="I40" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>278.933177426547</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>285.0899515417858</v>
+        <v>87.58783847607117</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
         <v>210.2775313912475</v>
@@ -25693,7 +25693,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>76.39749470147309</v>
+        <v>76.39749470147264</v>
       </c>
       <c r="H42" t="n">
         <v>58.58122432777904</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>165.7143192804292</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25806,7 +25806,7 @@
         <v>139.2678442953623</v>
       </c>
       <c r="I43" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.00395631202363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>355.7509693609559</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>326.0808475883636</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>113.5298827261233</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>124.4896850043736</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
         <v>83.80004204681616</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>203925.8155320433</v>
+        <v>203925.8155320432</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>203925.8155320433</v>
+        <v>203925.8155320432</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>533788.304669191</v>
+        <v>533788.3046691911</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>533788.304669191</v>
+        <v>533788.3046691912</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>533788.304669191</v>
+        <v>533788.3046691909</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>533788.3046691911</v>
+        <v>533788.3046691908</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>533788.3046691909</v>
+        <v>533788.304669191</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>533788.3046691909</v>
+        <v>533788.3046691911</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561974.298590371</v>
+        <v>561974.2985903709</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40638.47021822903</v>
+        <v>40638.47021822904</v>
       </c>
       <c r="C2" t="n">
         <v>40638.47021822903</v>
       </c>
       <c r="D2" t="n">
-        <v>40638.47021822903</v>
+        <v>40638.47021822905</v>
       </c>
       <c r="E2" t="n">
-        <v>59164.26815904783</v>
+        <v>59164.26815904781</v>
       </c>
       <c r="F2" t="n">
-        <v>59164.26815904783</v>
+        <v>59164.2681590478</v>
       </c>
       <c r="G2" t="n">
         <v>93378.59044281214</v>
@@ -26334,25 +26334,25 @@
         <v>93378.59044281213</v>
       </c>
       <c r="I2" t="n">
-        <v>153206.905452834</v>
+        <v>153206.9054528341</v>
       </c>
       <c r="J2" t="n">
         <v>153206.9054528341</v>
       </c>
       <c r="K2" t="n">
-        <v>153206.9054528341</v>
+        <v>153206.9054528342</v>
       </c>
       <c r="L2" t="n">
-        <v>153206.905452834</v>
+        <v>153206.9054528342</v>
       </c>
       <c r="M2" t="n">
         <v>153206.9054528341</v>
       </c>
       <c r="N2" t="n">
-        <v>153206.905452834</v>
+        <v>153206.9054528341</v>
       </c>
       <c r="O2" t="n">
-        <v>153206.905452834</v>
+        <v>153206.9054528341</v>
       </c>
       <c r="P2" t="n">
         <v>161192.7346476189</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97073.67414118123</v>
+        <v>97073.67414118107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135475.8703470908</v>
+        <v>135475.870347091</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>222021.1128848244</v>
+        <v>222021.1128848245</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18926.51120179927</v>
+        <v>18926.51120179917</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34559.57598144808</v>
+        <v>34559.57598144814</v>
       </c>
       <c r="P3" t="n">
-        <v>26145.39079135437</v>
+        <v>26145.39079135436</v>
       </c>
     </row>
     <row r="4">
@@ -26429,13 +26429,13 @@
         <v>4312.268799558472</v>
       </c>
       <c r="F4" t="n">
-        <v>4312.268799558473</v>
+        <v>4312.268799558471</v>
       </c>
       <c r="G4" t="n">
         <v>8225.097384584145</v>
       </c>
       <c r="H4" t="n">
-        <v>8225.097384584144</v>
+        <v>8225.097384584149</v>
       </c>
       <c r="I4" t="n">
         <v>17124.12090205231</v>
@@ -26444,19 +26444,19 @@
         <v>17124.12090205232</v>
       </c>
       <c r="K4" t="n">
-        <v>17124.12090205231</v>
+        <v>17124.12090205232</v>
       </c>
       <c r="L4" t="n">
         <v>17124.12090205231</v>
       </c>
       <c r="M4" t="n">
-        <v>17124.12090205232</v>
+        <v>17124.12090205231</v>
       </c>
       <c r="N4" t="n">
         <v>17124.12090205231</v>
       </c>
       <c r="O4" t="n">
-        <v>17124.1209020523</v>
+        <v>17124.12090205231</v>
       </c>
       <c r="P4" t="n">
         <v>18387.66759391808</v>
@@ -26478,16 +26478,16 @@
         <v>36451.30153811922</v>
       </c>
       <c r="E5" t="n">
-        <v>9460.071166703499</v>
+        <v>9460.071166703488</v>
       </c>
       <c r="F5" t="n">
-        <v>9460.071166703503</v>
+        <v>9460.071166703485</v>
       </c>
       <c r="G5" t="n">
         <v>20886.45015162826</v>
       </c>
       <c r="H5" t="n">
-        <v>20886.45015162827</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="I5" t="n">
         <v>40710.1211392429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128548.709516974</v>
+        <v>-128548.7095169739</v>
       </c>
       <c r="C6" t="n">
         <v>-3734.236569649402</v>
       </c>
       <c r="D6" t="n">
-        <v>-3734.236569649402</v>
+        <v>-3734.23656964938</v>
       </c>
       <c r="E6" t="n">
-        <v>-51681.74594839536</v>
+        <v>-51681.74594839521</v>
       </c>
       <c r="F6" t="n">
         <v>45391.92819278585</v>
       </c>
       <c r="G6" t="n">
-        <v>-71208.82744049108</v>
+        <v>-71208.82744049128</v>
       </c>
       <c r="H6" t="n">
-        <v>64267.04290659973</v>
+        <v>64267.04290659972</v>
       </c>
       <c r="I6" t="n">
         <v>-126648.4494732856</v>
       </c>
       <c r="J6" t="n">
-        <v>95372.66341153887</v>
+        <v>95372.66341153884</v>
       </c>
       <c r="K6" t="n">
-        <v>95372.66341153889</v>
+        <v>95372.66341153893</v>
       </c>
       <c r="L6" t="n">
-        <v>95372.66341153884</v>
+        <v>95372.66341153895</v>
       </c>
       <c r="M6" t="n">
-        <v>76446.15220973961</v>
+        <v>76446.15220973968</v>
       </c>
       <c r="N6" t="n">
-        <v>95372.66341153884</v>
+        <v>95372.66341153893</v>
       </c>
       <c r="O6" t="n">
-        <v>60813.08743009073</v>
+        <v>60813.08743009075</v>
       </c>
       <c r="P6" t="n">
-        <v>73274.35353040484</v>
+        <v>73274.35353040491</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>129.5275934917073</v>
       </c>
       <c r="E3" t="n">
-        <v>222.1303260697264</v>
+        <v>222.1303260697262</v>
       </c>
       <c r="F3" t="n">
-        <v>222.1303260697264</v>
+        <v>222.1303260697262</v>
       </c>
       <c r="G3" t="n">
         <v>345.7528191377621</v>
       </c>
       <c r="H3" t="n">
-        <v>345.7528191377622</v>
+        <v>345.7528191377621</v>
       </c>
       <c r="I3" t="n">
         <v>551.5907128643867</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="F4" t="n">
-        <v>75.94786280235965</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="G4" t="n">
         <v>219.5565574740962</v>
@@ -26819,16 +26819,16 @@
         <v>471.8000591907775</v>
       </c>
       <c r="L4" t="n">
+        <v>471.8000591907774</v>
+      </c>
+      <c r="M4" t="n">
         <v>471.8000591907773</v>
-      </c>
-      <c r="M4" t="n">
-        <v>471.8000591907775</v>
       </c>
       <c r="N4" t="n">
         <v>471.8000591907773</v>
       </c>
       <c r="O4" t="n">
-        <v>471.8000591907773</v>
+        <v>471.8000591907774</v>
       </c>
       <c r="P4" t="n">
         <v>506.080461825859</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92.60273257801913</v>
+        <v>92.60273257801896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>123.6224930680357</v>
+        <v>123.6224930680359</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>143.6086946717366</v>
+        <v>143.6086946717368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235977</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>143.6086946717366</v>
+        <v>143.6086946717368</v>
       </c>
       <c r="P4" t="n">
-        <v>34.28040263508166</v>
+        <v>34.2804026350816</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>143.6086946717366</v>
+        <v>143.6086946717368</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31299,7 +31299,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>87.73444147909908</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8929862354561859</v>
+        <v>0.8929862354561852</v>
       </c>
       <c r="H11" t="n">
-        <v>9.145295283865666</v>
+        <v>9.145295283865659</v>
       </c>
       <c r="I11" t="n">
-        <v>34.42685184242464</v>
+        <v>34.42685184242461</v>
       </c>
       <c r="J11" t="n">
-        <v>75.79109050154953</v>
+        <v>75.79109050154946</v>
       </c>
       <c r="K11" t="n">
-        <v>113.5911978484099</v>
+        <v>113.5911978484098</v>
       </c>
       <c r="L11" t="n">
-        <v>140.9199253517522</v>
+        <v>140.9199253517521</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8005693165461</v>
+        <v>156.800569316546</v>
       </c>
       <c r="N11" t="n">
-        <v>159.337766458036</v>
+        <v>159.3377664580359</v>
       </c>
       <c r="O11" t="n">
-        <v>150.4581345792186</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P11" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.43246733411927</v>
+        <v>96.43246733411918</v>
       </c>
       <c r="R11" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297464</v>
       </c>
       <c r="S11" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045784</v>
       </c>
       <c r="T11" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709453</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.0714388988364948</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.477789757961298</v>
       </c>
       <c r="H12" t="n">
-        <v>4.614443188731487</v>
+        <v>4.614443188731483</v>
       </c>
       <c r="I12" t="n">
-        <v>16.45021754384295</v>
+        <v>16.45021754384294</v>
       </c>
       <c r="J12" t="n">
-        <v>45.14065428177337</v>
+        <v>45.14065428177334</v>
       </c>
       <c r="K12" t="n">
-        <v>77.15256806518036</v>
+        <v>77.1525680651803</v>
       </c>
       <c r="L12" t="n">
         <v>103.7411489819038</v>
       </c>
       <c r="M12" t="n">
-        <v>121.0610277080009</v>
+        <v>121.0610277080008</v>
       </c>
       <c r="N12" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O12" t="n">
-        <v>113.6783377198533</v>
+        <v>113.6783377198532</v>
       </c>
       <c r="P12" t="n">
-        <v>91.23688807946934</v>
+        <v>91.23688807946927</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993692</v>
       </c>
       <c r="R12" t="n">
-        <v>29.66487637587781</v>
+        <v>29.66487637587779</v>
       </c>
       <c r="S12" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219717</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92582801564225</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798014</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4005628830765557</v>
+        <v>0.4005628830765555</v>
       </c>
       <c r="H13" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626105</v>
       </c>
       <c r="I13" t="n">
-        <v>12.04601833833861</v>
+        <v>12.0460183383386</v>
       </c>
       <c r="J13" t="n">
-        <v>28.31979583351249</v>
+        <v>28.31979583351247</v>
       </c>
       <c r="K13" t="n">
-        <v>46.53812405198529</v>
+        <v>46.53812405198525</v>
       </c>
       <c r="L13" t="n">
-        <v>59.55277627121813</v>
+        <v>59.55277627121809</v>
       </c>
       <c r="M13" t="n">
-        <v>62.79005266262773</v>
+        <v>62.79005266262768</v>
       </c>
       <c r="N13" t="n">
-        <v>61.2970455529788</v>
+        <v>61.29704555297875</v>
       </c>
       <c r="O13" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249352</v>
       </c>
       <c r="P13" t="n">
-        <v>48.44625996773178</v>
+        <v>48.44625996773174</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652866</v>
       </c>
       <c r="R13" t="n">
-        <v>18.01076381542404</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S13" t="n">
-        <v>6.980718607797792</v>
+        <v>6.980718607797787</v>
       </c>
       <c r="T13" t="n">
-        <v>1.711495954963465</v>
+        <v>1.711495954963464</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02184888453144852</v>
+        <v>0.02184888453144851</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8929862354561859</v>
+        <v>0.8929862354561851</v>
       </c>
       <c r="H14" t="n">
-        <v>9.145295283865666</v>
+        <v>9.145295283865657</v>
       </c>
       <c r="I14" t="n">
-        <v>34.42685184242464</v>
+        <v>34.42685184242461</v>
       </c>
       <c r="J14" t="n">
-        <v>75.79109050154953</v>
+        <v>75.79109050154946</v>
       </c>
       <c r="K14" t="n">
-        <v>113.5911978484099</v>
+        <v>113.5911978484098</v>
       </c>
       <c r="L14" t="n">
-        <v>140.9199253517522</v>
+        <v>140.9199253517521</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8005693165461</v>
+        <v>156.800569316546</v>
       </c>
       <c r="N14" t="n">
-        <v>159.337766458036</v>
+        <v>159.3377664580359</v>
       </c>
       <c r="O14" t="n">
-        <v>150.4581345792186</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P14" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.43246733411927</v>
+        <v>96.43246733411918</v>
       </c>
       <c r="R14" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297464</v>
       </c>
       <c r="S14" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045784</v>
       </c>
       <c r="T14" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709452</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.07143889883649479</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.4777897579612979</v>
       </c>
       <c r="H15" t="n">
-        <v>4.614443188731487</v>
+        <v>4.614443188731483</v>
       </c>
       <c r="I15" t="n">
-        <v>16.45021754384295</v>
+        <v>16.45021754384294</v>
       </c>
       <c r="J15" t="n">
-        <v>45.14065428177337</v>
+        <v>45.14065428177333</v>
       </c>
       <c r="K15" t="n">
-        <v>77.15256806518036</v>
+        <v>77.15256806518029</v>
       </c>
       <c r="L15" t="n">
-        <v>103.7411489819038</v>
+        <v>103.7411489819037</v>
       </c>
       <c r="M15" t="n">
-        <v>121.0610277080009</v>
+        <v>121.0610277080008</v>
       </c>
       <c r="N15" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O15" t="n">
-        <v>113.6783377198533</v>
+        <v>113.6783377198532</v>
       </c>
       <c r="P15" t="n">
-        <v>91.23688807946934</v>
+        <v>91.23688807946925</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993691</v>
       </c>
       <c r="R15" t="n">
-        <v>29.66487637587781</v>
+        <v>29.66487637587779</v>
       </c>
       <c r="S15" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219715</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92582801564225</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798014</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4005628830765557</v>
+        <v>0.4005628830765554</v>
       </c>
       <c r="H16" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626104</v>
       </c>
       <c r="I16" t="n">
-        <v>12.04601833833861</v>
+        <v>12.0460183383386</v>
       </c>
       <c r="J16" t="n">
-        <v>28.31979583351249</v>
+        <v>28.31979583351247</v>
       </c>
       <c r="K16" t="n">
-        <v>46.53812405198529</v>
+        <v>46.53812405198525</v>
       </c>
       <c r="L16" t="n">
-        <v>59.55277627121813</v>
+        <v>59.55277627121808</v>
       </c>
       <c r="M16" t="n">
-        <v>62.79005266262773</v>
+        <v>62.79005266262767</v>
       </c>
       <c r="N16" t="n">
-        <v>61.2970455529788</v>
+        <v>61.29704555297874</v>
       </c>
       <c r="O16" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249351</v>
       </c>
       <c r="P16" t="n">
-        <v>48.44625996773178</v>
+        <v>48.44625996773173</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652866</v>
       </c>
       <c r="R16" t="n">
-        <v>18.01076381542404</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S16" t="n">
-        <v>6.980718607797792</v>
+        <v>6.980718607797786</v>
       </c>
       <c r="T16" t="n">
-        <v>1.711495954963465</v>
+        <v>1.711495954963464</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02184888453144852</v>
+        <v>0.0218488845314485</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,13 +32469,13 @@
         <v>14.23493893063158</v>
       </c>
       <c r="I20" t="n">
-        <v>53.5864746122958</v>
+        <v>53.58647461229579</v>
       </c>
       <c r="J20" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800749</v>
       </c>
       <c r="K20" t="n">
-        <v>176.8082619794779</v>
+        <v>176.8082619794778</v>
       </c>
       <c r="L20" t="n">
         <v>219.3462834415373</v>
@@ -32487,7 +32487,7 @@
         <v>248.0142307569799</v>
       </c>
       <c r="O20" t="n">
-        <v>234.1928052482317</v>
+        <v>234.1928052482316</v>
       </c>
       <c r="P20" t="n">
         <v>199.8781410373231</v>
@@ -32496,13 +32496,13 @@
         <v>150.1001597896</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472344</v>
+        <v>87.31214281472343</v>
       </c>
       <c r="S20" t="n">
-        <v>31.67373815518295</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T20" t="n">
-        <v>6.084554636283633</v>
+        <v>6.084554636283631</v>
       </c>
       <c r="U20" t="n">
         <v>0.1111968865568681</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7436947430510357</v>
+        <v>0.7436947430510356</v>
       </c>
       <c r="H21" t="n">
-        <v>7.18252554472974</v>
+        <v>7.182525544729739</v>
       </c>
       <c r="I21" t="n">
         <v>25.60527953048522</v>
@@ -32557,10 +32557,10 @@
         <v>120.0903919074999</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4763519944804</v>
+        <v>161.4763519944803</v>
       </c>
       <c r="M21" t="n">
-        <v>188.4352864300804</v>
+        <v>188.4352864300803</v>
       </c>
       <c r="N21" t="n">
         <v>193.4226077551902</v>
@@ -32572,19 +32572,19 @@
         <v>142.0130777322631</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.93198158665501</v>
+        <v>94.931981586655</v>
       </c>
       <c r="R21" t="n">
-        <v>46.17431045013362</v>
+        <v>46.17431045013361</v>
       </c>
       <c r="S21" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T21" t="n">
-        <v>2.997611705543428</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04892728572704184</v>
+        <v>0.04892728572704183</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6234886902484236</v>
+        <v>0.6234886902484235</v>
       </c>
       <c r="H22" t="n">
-        <v>5.543381264208715</v>
+        <v>5.543381264208714</v>
       </c>
       <c r="I22" t="n">
-        <v>18.75000533947078</v>
+        <v>18.75000533947077</v>
       </c>
       <c r="J22" t="n">
-        <v>44.08065040056354</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K22" t="n">
         <v>72.43804964886228</v>
       </c>
       <c r="L22" t="n">
-        <v>92.69576400293381</v>
+        <v>92.6957640029338</v>
       </c>
       <c r="M22" t="n">
-        <v>97.73468623594151</v>
+        <v>97.73468623594148</v>
       </c>
       <c r="N22" t="n">
-        <v>95.41077384501564</v>
+        <v>95.41077384501563</v>
       </c>
       <c r="O22" t="n">
-        <v>88.12729232711357</v>
+        <v>88.12729232711355</v>
       </c>
       <c r="P22" t="n">
         <v>75.40812304604566</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.20867568980209</v>
+        <v>52.20867568980208</v>
       </c>
       <c r="R22" t="n">
-        <v>28.03431874517002</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S22" t="n">
         <v>10.86570744732934</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241517</v>
       </c>
       <c r="K11" t="n">
-        <v>24.45480817519277</v>
+        <v>24.45480817519268</v>
       </c>
       <c r="L11" t="n">
-        <v>45.43452728890735</v>
+        <v>45.43452728890723</v>
       </c>
       <c r="M11" t="n">
-        <v>63.51034485950065</v>
+        <v>63.51034485950053</v>
       </c>
       <c r="N11" t="n">
-        <v>66.42547570141669</v>
+        <v>66.42547570141657</v>
       </c>
       <c r="O11" t="n">
-        <v>57.26835895343542</v>
+        <v>57.26835895343531</v>
       </c>
       <c r="P11" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050968</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967135</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.32678528056497</v>
+        <v>21.32678528056491</v>
       </c>
       <c r="L12" t="n">
-        <v>47.62662517105478</v>
+        <v>47.62662517105471</v>
       </c>
       <c r="M12" t="n">
-        <v>63.49674396958346</v>
+        <v>63.49674396958336</v>
       </c>
       <c r="N12" t="n">
-        <v>71.07175948935102</v>
+        <v>71.07175948935091</v>
       </c>
       <c r="O12" t="n">
-        <v>55.92685871985329</v>
+        <v>55.92685871985321</v>
       </c>
       <c r="P12" t="n">
-        <v>36.97725307666559</v>
+        <v>36.97725307666552</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.296824985098247</v>
+        <v>4.296824985098198</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="L13" t="n">
-        <v>4.924482377316622</v>
+        <v>4.924482377316579</v>
       </c>
       <c r="M13" t="n">
-        <v>75.94786280235959</v>
+        <v>6.525110163847636</v>
       </c>
       <c r="N13" t="n">
-        <v>75.94786280235959</v>
+        <v>61.42966974392824</v>
       </c>
       <c r="O13" t="n">
-        <v>67.95477990777596</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="P13" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235947</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241517</v>
       </c>
       <c r="K14" t="n">
-        <v>24.45480817519277</v>
+        <v>24.45480817519267</v>
       </c>
       <c r="L14" t="n">
-        <v>45.43452728890735</v>
+        <v>45.43452728890723</v>
       </c>
       <c r="M14" t="n">
-        <v>63.51034485950065</v>
+        <v>63.51034485950051</v>
       </c>
       <c r="N14" t="n">
-        <v>66.42547570141669</v>
+        <v>66.42547570141654</v>
       </c>
       <c r="O14" t="n">
-        <v>57.26835895343542</v>
+        <v>57.26835895343528</v>
       </c>
       <c r="P14" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050968</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967135</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.32678528056513</v>
+        <v>21.3267852805649</v>
       </c>
       <c r="L15" t="n">
-        <v>47.62662517105478</v>
+        <v>47.6266251710547</v>
       </c>
       <c r="M15" t="n">
-        <v>63.49674396958346</v>
+        <v>63.49674396958334</v>
       </c>
       <c r="N15" t="n">
-        <v>71.07175948935102</v>
+        <v>71.07175948935091</v>
       </c>
       <c r="O15" t="n">
-        <v>55.92685871985329</v>
+        <v>55.92685871985319</v>
       </c>
       <c r="P15" t="n">
-        <v>36.97725307666559</v>
+        <v>36.97725307666551</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.296824985098247</v>
+        <v>4.296824985098191</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>75.94786280235965</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.924482377316622</v>
+        <v>4.924482377316572</v>
       </c>
       <c r="M16" t="n">
-        <v>75.94786280235965</v>
+        <v>6.525110163847629</v>
       </c>
       <c r="N16" t="n">
-        <v>75.94786280235965</v>
+        <v>61.42966974392823</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5428447094972313</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="P16" t="n">
-        <v>67.41193519827875</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>5.064174064522991</v>
       </c>
       <c r="J18" t="n">
-        <v>178.3792047194895</v>
+        <v>23.08725636827777</v>
       </c>
       <c r="K18" t="n">
-        <v>64.26460912288451</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="L18" t="n">
         <v>105.3618281836313</v>
@@ -36047,7 +36047,7 @@
         <v>219.5565574740962</v>
       </c>
       <c r="L19" t="n">
-        <v>194.6232718179149</v>
+        <v>125.5177133811833</v>
       </c>
       <c r="M19" t="n">
         <v>41.46974373716144</v>
@@ -36056,13 +36056,13 @@
         <v>43.69812833659618</v>
       </c>
       <c r="O19" t="n">
-        <v>32.05239425411722</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="P19" t="n">
         <v>219.5565574740962</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.3986047832474</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.64761804676702</v>
+        <v>44.64761804676699</v>
       </c>
       <c r="K20" t="n">
-        <v>87.67187230626074</v>
+        <v>87.67187230626071</v>
       </c>
       <c r="L20" t="n">
         <v>123.8608853786925</v>
       </c>
       <c r="M20" t="n">
-        <v>150.7747793758132</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N20" t="n">
-        <v>155.1019400003606</v>
+        <v>155.1019400003605</v>
       </c>
       <c r="O20" t="n">
         <v>141.0030296224485</v>
@@ -36141,7 +36141,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.066355390448</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5.064174064522998</v>
+        <v>5.064174064522991</v>
       </c>
       <c r="J21" t="n">
-        <v>18.89360532308051</v>
+        <v>102.3467939030631</v>
       </c>
       <c r="K21" t="n">
-        <v>64.26460912288454</v>
+        <v>64.26460912288451</v>
       </c>
       <c r="L21" t="n">
         <v>105.3618281836313</v>
@@ -36217,13 +36217,13 @@
         <v>119.1924189223225</v>
       </c>
       <c r="P21" t="n">
-        <v>87.75344272945938</v>
+        <v>87.75344272945935</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.7249624782251</v>
+        <v>38.23936308181628</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>76.03241081642643</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.30544777956407</v>
+        <v>58.30544777956406</v>
       </c>
       <c r="K22" t="n">
+        <v>20.18768008979545</v>
+      </c>
+      <c r="L22" t="n">
+        <v>38.06747010903229</v>
+      </c>
+      <c r="M22" t="n">
         <v>219.5565574740962</v>
-      </c>
-      <c r="L22" t="n">
-        <v>219.5565574740962</v>
-      </c>
-      <c r="M22" t="n">
-        <v>41.46974373716147</v>
       </c>
       <c r="N22" t="n">
         <v>219.5565574740962</v>
       </c>
       <c r="O22" t="n">
-        <v>32.05239425411724</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="P22" t="n">
-        <v>78.85799968409819</v>
+        <v>94.12498747654909</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.3078294018249</v>
+        <v>0.5423709677871287</v>
       </c>
       <c r="J24" t="n">
         <v>306.8530616732681</v>
       </c>
       <c r="K24" t="n">
-        <v>135.7583235882914</v>
+        <v>354.5656334897029</v>
       </c>
       <c r="L24" t="n">
         <v>201.4939501547308</v>
       </c>
       <c r="M24" t="n">
-        <v>442.0945062400467</v>
+        <v>243.0526547726732</v>
       </c>
       <c r="N24" t="n">
         <v>255.379980966111</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.82080375707621</v>
+        <v>18.89014897190253</v>
       </c>
       <c r="K25" t="n">
-        <v>63.31240602137349</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L25" t="n">
         <v>93.25227197797028</v>
@@ -36533,10 +36533,10 @@
         <v>402.774769158706</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0540001777558</v>
+        <v>64.52118858874761</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.93067198259682</v>
+        <v>133.0303064520171</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>201.4939501547308</v>
       </c>
       <c r="M27" t="n">
-        <v>373.0016652023868</v>
+        <v>243.0526547726732</v>
       </c>
       <c r="N27" t="n">
         <v>255.379980966111</v>
@@ -36694,7 +36694,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.75545797822838</v>
+        <v>224.704468407942</v>
       </c>
       <c r="R27" t="n">
         <v>103.5214789635406</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>84.54809203385847</v>
+        <v>57.16484984514694</v>
       </c>
       <c r="K28" t="n">
-        <v>262.5305616086986</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L28" t="n">
-        <v>410.4028893870845</v>
+        <v>93.25227197797028</v>
       </c>
       <c r="M28" t="n">
         <v>448.1052379230254</v>
       </c>
       <c r="N28" t="n">
-        <v>100.4992638300433</v>
+        <v>435.8874471104327</v>
       </c>
       <c r="O28" t="n">
         <v>84.51743641250346</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J30" t="n">
         <v>60.72336068879013</v>
@@ -36916,13 +36916,13 @@
         <v>135.7583235882914</v>
       </c>
       <c r="L30" t="n">
+        <v>201.4939501547308</v>
+      </c>
+      <c r="M30" t="n">
         <v>471.8000591907775</v>
       </c>
-      <c r="M30" t="n">
-        <v>243.0526547726732</v>
-      </c>
       <c r="N30" t="n">
-        <v>450.010882815954</v>
+        <v>255.379980966111</v>
       </c>
       <c r="O30" t="n">
         <v>224.5328738373055</v>
@@ -36931,10 +36931,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.75545797822838</v>
+        <v>222.321306540278</v>
       </c>
       <c r="R30" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.89014897190253</v>
+        <v>57.16484984514694</v>
       </c>
       <c r="K31" t="n">
-        <v>63.31240602137349</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L31" t="n">
-        <v>410.4028893870845</v>
+        <v>93.25227197797028</v>
       </c>
       <c r="M31" t="n">
-        <v>186.8852752990853</v>
+        <v>448.1052379230254</v>
       </c>
       <c r="N31" t="n">
         <v>435.8874471104327</v>
       </c>
       <c r="O31" t="n">
-        <v>402.774769158706</v>
+        <v>84.51743641250346</v>
       </c>
       <c r="P31" t="n">
         <v>328.0540001777558</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.93067198259682</v>
+        <v>149.4801267359677</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0.5423709677871287</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K33" t="n">
         <v>135.7583235882914</v>
@@ -37162,16 +37162,16 @@
         <v>255.379980966111</v>
       </c>
       <c r="O33" t="n">
-        <v>471.8000591907773</v>
+        <v>224.5328738373055</v>
       </c>
       <c r="P33" t="n">
         <v>172.2984447772875</v>
       </c>
       <c r="Q33" t="n">
-        <v>223.5669840389477</v>
+        <v>313.5627678796399</v>
       </c>
       <c r="R33" t="n">
-        <v>103.5214789635406</v>
+        <v>14.66317949184234</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.89014897190253</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K34" t="n">
         <v>271.6762379261352</v>
       </c>
       <c r="L34" t="n">
-        <v>289.2699529536202</v>
+        <v>96.06255513829366</v>
       </c>
       <c r="M34" t="n">
         <v>99.65437982778744</v>
@@ -37247,7 +37247,7 @@
         <v>328.0540001777558</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.93067198259682</v>
+        <v>149.4801267359677</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>201.4939501547308</v>
       </c>
       <c r="M36" t="n">
-        <v>471.8000591907775</v>
+        <v>243.0526547726732</v>
       </c>
       <c r="N36" t="n">
         <v>255.379980966111</v>
       </c>
       <c r="O36" t="n">
-        <v>460.7224803050913</v>
+        <v>224.5328738373055</v>
       </c>
       <c r="P36" t="n">
         <v>172.2984447772875</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.75545797822838</v>
+        <v>470.8341693924196</v>
       </c>
       <c r="R36" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190253</v>
       </c>
       <c r="K37" t="n">
-        <v>271.6762379261352</v>
+        <v>63.31240602137349</v>
       </c>
       <c r="L37" t="n">
         <v>410.4028893870845</v>
@@ -37475,16 +37475,16 @@
         <v>448.1052379230254</v>
       </c>
       <c r="N37" t="n">
-        <v>100.4992638300433</v>
+        <v>435.8874471104327</v>
       </c>
       <c r="O37" t="n">
-        <v>84.51743641250346</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P37" t="n">
-        <v>318.9083238603196</v>
+        <v>64.52118858874761</v>
       </c>
       <c r="Q37" t="n">
-        <v>149.4801267359677</v>
+        <v>24.24352094766449</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0.5423709677871287</v>
       </c>
       <c r="J39" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K39" t="n">
         <v>135.7583235882914</v>
@@ -37636,16 +37636,16 @@
         <v>255.379980966111</v>
       </c>
       <c r="O39" t="n">
-        <v>389.9682703097048</v>
+        <v>224.5328738373055</v>
       </c>
       <c r="P39" t="n">
-        <v>471.8000591907773</v>
+        <v>172.2984447772875</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.75545797822838</v>
+        <v>224.7044684079415</v>
       </c>
       <c r="R39" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0.5423709677871287</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K42" t="n">
         <v>135.7583235882914</v>
@@ -37870,7 +37870,7 @@
         <v>243.0526547726732</v>
       </c>
       <c r="N42" t="n">
-        <v>471.8000591907773</v>
+        <v>255.379980966111</v>
       </c>
       <c r="O42" t="n">
         <v>224.5328738373055</v>
@@ -37879,10 +37879,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q42" t="n">
-        <v>343.2723906394512</v>
+        <v>224.7044684079415</v>
       </c>
       <c r="R42" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.89014897190253</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K43" t="n">
-        <v>63.31240602137349</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L43" t="n">
         <v>410.4028893870845</v>
       </c>
       <c r="M43" t="n">
-        <v>448.1052379230254</v>
+        <v>99.65437982778744</v>
       </c>
       <c r="N43" t="n">
-        <v>435.8874471104327</v>
+        <v>121.5471128616418</v>
       </c>
       <c r="O43" t="n">
-        <v>141.5548065347653</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P43" t="n">
         <v>328.0540001777558</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.93067198259682</v>
+        <v>149.4801267359677</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J45" t="n">
-        <v>227.1455606131483</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
-        <v>145.1737298295874</v>
+        <v>315.2585270673447</v>
       </c>
       <c r="L45" t="n">
         <v>214.1541257794518</v>
@@ -38107,7 +38107,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N45" t="n">
-        <v>506.080461825859</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O45" t="n">
         <v>238.4057462161408</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
-        <v>243.7260657213599</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M46" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O46" t="n">
-        <v>409.6841833510115</v>
+        <v>169.556718718899</v>
       </c>
       <c r="P46" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
